--- a/Armenian_Data/number of arrivals.xlsx
+++ b/Armenian_Data/number of arrivals.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laith Alayassa\Desktop\Data_science\final_mod_5\Armenian_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28169F6E-6512-49DE-9051-08AF348592CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E568C34-14EB-4EA5-A4A7-D48EFCD3799F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -106,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -130,6 +139,7 @@
     <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,6 +155,968 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ورقة1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VALUE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ورقة1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ورقة1!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1894000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1652000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1495000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1192000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1204000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1084000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>963000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>758000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>684000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>575000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>558000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A07B-41F3-8C82-B16CE44D6CF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1834116607"/>
+        <c:axId val="1834115359"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1834116607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1834115359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1834115359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1834116607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3753D1-5E34-4040-A2B1-D1E8DB3730B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,15 +1382,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -432,7 +1407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>2019</v>
       </c>
@@ -445,8 +1420,16 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="9">
+        <f>($B$13-B2)/$B$13</f>
+        <v>-2.3942652329749103</v>
+      </c>
+      <c r="F2">
+        <f>B2/B13</f>
+        <v>3.3942652329749103</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2018</v>
       </c>
@@ -459,8 +1442,16 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E13" si="0">($B$13-B3)/$B$13</f>
+        <v>-1.9605734767025089</v>
+      </c>
+      <c r="F3" t="e">
+        <f t="shared" ref="F3:F13" si="1">B3/B14</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2017</v>
       </c>
@@ -473,8 +1464,16 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
+      <c r="E4" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6792114695340501</v>
+      </c>
+      <c r="F4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2016</v>
       </c>
@@ -487,8 +1486,16 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.2580645161290323</v>
+      </c>
+      <c r="F5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
@@ -501,8 +1508,16 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
+      <c r="E6" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.1362007168458781</v>
+      </c>
+      <c r="F6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2014</v>
       </c>
@@ -515,8 +1530,16 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.1577060931899641</v>
+      </c>
+      <c r="F7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>2013</v>
       </c>
@@ -529,8 +1552,16 @@
       <c r="D8" t="s">
         <v>4</v>
       </c>
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.94265232974910396</v>
+      </c>
+      <c r="F8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2012</v>
       </c>
@@ -543,8 +1574,16 @@
       <c r="D9" t="s">
         <v>4</v>
       </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.72580645161290325</v>
+      </c>
+      <c r="F9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>2011</v>
       </c>
@@ -557,8 +1596,16 @@
       <c r="D10" t="s">
         <v>4</v>
       </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.35842293906810035</v>
+      </c>
+      <c r="F10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2010</v>
       </c>
@@ -571,8 +1618,16 @@
       <c r="D11" t="s">
         <v>4</v>
       </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.22580645161290322</v>
+      </c>
+      <c r="F11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>2009</v>
       </c>
@@ -585,8 +1640,16 @@
       <c r="D12" t="s">
         <v>4</v>
       </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>-3.046594982078853E-2</v>
+      </c>
+      <c r="F12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2008</v>
       </c>
@@ -596,10 +1659,19 @@
       <c r="C13" s="1"/>
       <c r="D13" t="s">
         <v>4</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>